--- a/SCH-STH/Impact assessments/Benin/2023/bj_sch_sth_impact_202304_4_urine_filtration.xlsx
+++ b/SCH-STH/Impact assessments/Benin/2023/bj_sch_sth_impact_202304_4_urine_filtration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\SCH-STH\Impact assessments\Benin\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E11E0F3-C8EF-41B0-A9B6-92286F56647D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C77E97-1CF5-40D8-B6FA-C1166056D5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -226,9 +226,6 @@
     <t>bj_sch_sth_impact_202304_4_urine_filtration</t>
   </si>
   <si>
-    <t>(2023 Avril) - 3. SCH/STH - Urine Filtration</t>
-  </si>
-  <si>
     <t>u_urine_vol_sup</t>
   </si>
   <si>
@@ -245,6 +242,9 @@
   </si>
   <si>
     <t>Volume d’urine : Consigner les millilitres (ml) d’urine prélevés sur la personne - Superviseur</t>
+  </si>
+  <si>
+    <t>(2023 Avril) - 4. SCH/STH - Urine Filtration</t>
   </si>
 </sst>
 </file>
@@ -843,7 +843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1083,10 +1083,10 @@
         <v>19</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="34"/>
@@ -1129,10 +1129,10 @@
         <v>19</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="45"/>
@@ -1171,10 +1171,10 @@
         <v>19</v>
       </c>
       <c r="B13" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="35" t="s">
         <v>67</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>68</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="45"/>
@@ -1458,7 +1458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="31" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>63</v>

--- a/SCH-STH/Impact assessments/Benin/2023/bj_sch_sth_impact_202304_4_urine_filtration.xlsx
+++ b/SCH-STH/Impact assessments/Benin/2023/bj_sch_sth_impact_202304_4_urine_filtration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\SCH-STH\Impact assessments\Benin\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\dsa-forms\SCH-STH\Impact assessments\Benin\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C77E97-1CF5-40D8-B6FA-C1166056D5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08A54C2-E791-4AF3-9D3D-22D63A1F7A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
   <si>
     <t>type</t>
   </si>
@@ -109,9 +109,6 @@
     <t>u_sh_egp_10ml</t>
   </si>
   <si>
-    <t>k_sch_man</t>
-  </si>
-  <si>
     <t>u_remarks</t>
   </si>
   <si>
@@ -154,9 +151,6 @@
     <t>French</t>
   </si>
   <si>
-    <t>espen_code_id</t>
-  </si>
-  <si>
     <t>regex(.,'^[0-9]{3}-[0-9]{2}$')</t>
   </si>
   <si>
@@ -220,21 +214,12 @@
     <t>Nombre d’œufs de Schistosoma haematobium par 10 ml</t>
   </si>
   <si>
-    <t>Nombre d'œufs de Schistosoma mansoni</t>
-  </si>
-  <si>
-    <t>bj_sch_sth_impact_202304_4_urine_filtration</t>
-  </si>
-  <si>
     <t>u_urine_vol_sup</t>
   </si>
   <si>
     <t>u_sh_egp_10ml_sup</t>
   </si>
   <si>
-    <t>k_sch_man_sup</t>
-  </si>
-  <si>
     <t>Nombre d'œufs de Schistosoma mansoni - Superviseur</t>
   </si>
   <si>
@@ -244,7 +229,46 @@
     <t>Volume d’urine : Consigner les millilitres (ml) d’urine prélevés sur la personne - Superviseur</t>
   </si>
   <si>
-    <t>(2023 Avril) - 4. SCH/STH - Urine Filtration</t>
+    <t>(2023 Avril) - 4. SCH/STH - Urine Filtration V1</t>
+  </si>
+  <si>
+    <t>bj_sch_sth_impact_202304_4_urine_filtration_v1</t>
+  </si>
+  <si>
+    <t>Confirmer que l’urine a été conservé pour filtration et que les résultats finaux insérés seront le nombre d’œufs ? </t>
+  </si>
+  <si>
+    <t>Confirmé</t>
+  </si>
+  <si>
+    <t>Pas confirmé</t>
+  </si>
+  <si>
+    <t>confirmation</t>
+  </si>
+  <si>
+    <t>select_one confirmation</t>
+  </si>
+  <si>
+    <t>u_sch_man_sup</t>
+  </si>
+  <si>
+    <t>u_espen_code_id</t>
+  </si>
+  <si>
+    <t>u_urine_filtrer</t>
+  </si>
+  <si>
+    <t>u_sch_man_a</t>
+  </si>
+  <si>
+    <t>u_sch_man_b</t>
+  </si>
+  <si>
+    <t>Nombre d'œufs de Schistosoma mansoni - Lame A</t>
+  </si>
+  <si>
+    <t>Nombre d'œufs de Schistosoma mansoni - Lame B</t>
   </si>
 </sst>
 </file>
@@ -434,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -559,6 +583,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -841,32 +874,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="17.875" style="26" customWidth="1"/>
+    <col min="1" max="1" width="19.59765625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="17.8984375" style="26" customWidth="1"/>
     <col min="3" max="3" width="47.5" style="26" customWidth="1"/>
-    <col min="4" max="4" width="47.375" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="26" customWidth="1"/>
+    <col min="4" max="4" width="47.3984375" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" customWidth="1"/>
+    <col min="6" max="6" width="16.8984375" style="26" customWidth="1"/>
     <col min="7" max="7" width="29.5" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="9.75" customWidth="1"/>
-    <col min="11" max="11" width="13.875" customWidth="1"/>
-    <col min="12" max="12" width="36.625" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" customWidth="1"/>
+    <col min="10" max="10" width="9.69921875" customWidth="1"/>
+    <col min="11" max="11" width="13.8984375" customWidth="1"/>
+    <col min="12" max="12" width="36.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="24" customFormat="1" ht="18.75">
+    <row r="1" spans="1:12" s="24" customFormat="1" ht="18">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -904,7 +937,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="24" customFormat="1" ht="31.5">
+    <row r="2" spans="1:12" s="24" customFormat="1" ht="31.2">
       <c r="A2" s="36" t="s">
         <v>14</v>
       </c>
@@ -912,17 +945,17 @@
         <v>12</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E2" s="34"/>
       <c r="F2" s="34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H2" s="34"/>
       <c r="I2" s="34"/>
@@ -940,7 +973,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" s="37"/>
       <c r="E3" s="36"/>
@@ -962,7 +995,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="36"/>
@@ -975,7 +1008,7 @@
       </c>
       <c r="K4" s="36"/>
       <c r="L4" s="40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="23" customFormat="1">
@@ -986,7 +1019,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" s="37"/>
       <c r="E5" s="36"/>
@@ -999,7 +1032,7 @@
       </c>
       <c r="K5" s="36"/>
       <c r="L5" s="40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="23" customFormat="1">
@@ -1007,10 +1040,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="36"/>
@@ -1023,28 +1056,28 @@
       </c>
       <c r="K6" s="36"/>
       <c r="L6" s="40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="25" customFormat="1" ht="47.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="25" customFormat="1" ht="46.8">
       <c r="A7" s="36" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="43" t="s">
-        <v>42</v>
-      </c>
       <c r="D7" s="43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E7" s="36"/>
       <c r="F7" s="44" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G7" s="43" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
@@ -1054,39 +1087,37 @@
       <c r="K7" s="36"/>
       <c r="L7" s="36"/>
     </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" ht="31.5">
-      <c r="A8" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-    </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" ht="31.5">
+    <row r="8" spans="1:12" s="25" customFormat="1" ht="46.8">
+      <c r="A8" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="51"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+    </row>
+    <row r="9" spans="1:12" s="4" customFormat="1" ht="31.2">
       <c r="A9" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="34"/>
@@ -1102,37 +1133,39 @@
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
     </row>
-    <row r="10" spans="1:12" s="24" customFormat="1">
+    <row r="10" spans="1:12" s="4" customFormat="1" ht="31.2">
       <c r="A10" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D10" s="35"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="46"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>23</v>
+      </c>
       <c r="H10" s="34"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-    </row>
-    <row r="11" spans="1:12" s="24" customFormat="1" ht="31.5">
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+    </row>
+    <row r="11" spans="1:12" s="24" customFormat="1" ht="31.2">
       <c r="A11" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="45"/>
@@ -1146,23 +1179,25 @@
       <c r="K11" s="45"/>
       <c r="L11" s="45"/>
     </row>
-    <row r="12" spans="1:12" s="24" customFormat="1">
+    <row r="12" spans="1:12" s="24" customFormat="1" ht="31.2">
       <c r="A12" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="45"/>
       <c r="F12" s="34"/>
       <c r="G12" s="46"/>
-      <c r="H12" s="45"/>
+      <c r="H12" s="34"/>
       <c r="I12" s="45"/>
-      <c r="J12" s="34"/>
+      <c r="J12" s="34" t="s">
+        <v>13</v>
+      </c>
       <c r="K12" s="45"/>
       <c r="L12" s="45"/>
     </row>
@@ -1171,10 +1206,10 @@
         <v>19</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="45"/>
@@ -1188,13 +1223,13 @@
     </row>
     <row r="14" spans="1:12" s="24" customFormat="1">
       <c r="A14" s="34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="45"/>
@@ -1208,13 +1243,15 @@
     </row>
     <row r="15" spans="1:12" s="24" customFormat="1">
       <c r="A15" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
+        <v>19</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="35"/>
       <c r="E15" s="45"/>
       <c r="F15" s="34"/>
       <c r="G15" s="46"/>
@@ -1226,13 +1263,15 @@
     </row>
     <row r="16" spans="1:12" s="24" customFormat="1">
       <c r="A16" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
+        <v>18</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="35"/>
       <c r="E16" s="45"/>
       <c r="F16" s="34"/>
       <c r="G16" s="46"/>
@@ -1242,19 +1281,55 @@
       <c r="K16" s="45"/>
       <c r="L16" s="45"/>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+    <row r="17" spans="1:12" s="24" customFormat="1">
+      <c r="A17" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+    </row>
+    <row r="18" spans="1:12" s="24" customFormat="1">
+      <c r="A18" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1268,20 +1343,20 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="1" max="1" width="16.3984375" customWidth="1"/>
     <col min="2" max="2" width="39.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="46.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="46.09765625" style="4" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -1290,32 +1365,44 @@
         <v>2</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>53</v>
-      </c>
       <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="A2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="D2" s="19"/>
       <c r="E2" s="20"/>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="A3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="D3" s="19"/>
       <c r="E3" s="20"/>
       <c r="F3" s="21"/>
@@ -1333,24 +1420,24 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="C5" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1458,36 +1545,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="44.125" customWidth="1"/>
-    <col min="2" max="2" width="42.25" customWidth="1"/>
+    <col min="1" max="1" width="44.09765625" customWidth="1"/>
+    <col min="2" max="2" width="42.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="31" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/SCH-STH/Impact assessments/Benin/2023/bj_sch_sth_impact_202304_4_urine_filtration.xlsx
+++ b/SCH-STH/Impact assessments/Benin/2023/bj_sch_sth_impact_202304_4_urine_filtration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\dsa-forms\SCH-STH\Impact assessments\Benin\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Benin\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08A54C2-E791-4AF3-9D3D-22D63A1F7A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785E19FD-95EB-4559-940E-791BBE658E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -876,30 +876,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.59765625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="17.8984375" style="26" customWidth="1"/>
+    <col min="1" max="1" width="19.625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="17.875" style="26" customWidth="1"/>
     <col min="3" max="3" width="47.5" style="26" customWidth="1"/>
-    <col min="4" max="4" width="47.3984375" customWidth="1"/>
-    <col min="5" max="5" width="12.59765625" customWidth="1"/>
-    <col min="6" max="6" width="16.8984375" style="26" customWidth="1"/>
+    <col min="4" max="4" width="47.375" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="26" customWidth="1"/>
     <col min="7" max="7" width="29.5" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="12.59765625" customWidth="1"/>
-    <col min="10" max="10" width="9.69921875" customWidth="1"/>
-    <col min="11" max="11" width="13.8984375" customWidth="1"/>
-    <col min="12" max="12" width="36.59765625" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="10" max="10" width="9.75" customWidth="1"/>
+    <col min="11" max="11" width="13.875" customWidth="1"/>
+    <col min="12" max="12" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="24" customFormat="1" ht="18">
+    <row r="1" spans="1:12" s="24" customFormat="1" ht="18.75">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -937,7 +937,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="24" customFormat="1" ht="31.2">
+    <row r="2" spans="1:12" s="24" customFormat="1" ht="31.5">
       <c r="A2" s="36" t="s">
         <v>14</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="25" customFormat="1" ht="46.8">
+    <row r="7" spans="1:12" s="25" customFormat="1" ht="47.25">
       <c r="A7" s="36" t="s">
         <v>18</v>
       </c>
@@ -1087,7 +1087,7 @@
       <c r="K7" s="36"/>
       <c r="L7" s="36"/>
     </row>
-    <row r="8" spans="1:12" s="25" customFormat="1" ht="46.8">
+    <row r="8" spans="1:12" s="25" customFormat="1" ht="47.25">
       <c r="A8" s="50" t="s">
         <v>71</v>
       </c>
@@ -1109,7 +1109,7 @@
       <c r="K8" s="50"/>
       <c r="L8" s="50"/>
     </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" ht="31.2">
+    <row r="9" spans="1:12" s="4" customFormat="1" ht="31.5">
       <c r="A9" s="34" t="s">
         <v>19</v>
       </c>
@@ -1133,7 +1133,7 @@
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
     </row>
-    <row r="10" spans="1:12" s="4" customFormat="1" ht="31.2">
+    <row r="10" spans="1:12" s="4" customFormat="1" ht="31.5">
       <c r="A10" s="34" t="s">
         <v>19</v>
       </c>
@@ -1157,7 +1157,7 @@
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
     </row>
-    <row r="11" spans="1:12" s="24" customFormat="1" ht="31.2">
+    <row r="11" spans="1:12" s="24" customFormat="1">
       <c r="A11" s="34" t="s">
         <v>19</v>
       </c>
@@ -1179,7 +1179,7 @@
       <c r="K11" s="45"/>
       <c r="L11" s="45"/>
     </row>
-    <row r="12" spans="1:12" s="24" customFormat="1" ht="31.2">
+    <row r="12" spans="1:12" s="24" customFormat="1" ht="31.5">
       <c r="A12" s="34" t="s">
         <v>19</v>
       </c>
@@ -1346,11 +1346,11 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.3984375" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="39.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="46.09765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="46.125" style="4" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1545,14 +1545,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="44.09765625" customWidth="1"/>
-    <col min="2" max="2" width="42.19921875" customWidth="1"/>
+    <col min="1" max="1" width="44.125" customWidth="1"/>
+    <col min="2" max="2" width="42.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
